--- a/raw/References.xlsx
+++ b/raw/References.xlsx
@@ -7911,7 +7911,7 @@
     <t>Pitman, Donald</t>
   </si>
   <si>
-    <t>Bosquejo de la Gramática Araona</t>
+    <t>Bosquejo de la gramática araona</t>
   </si>
   <si>
     <t>Riberalta, Bolivia</t>
